--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D0D739-3436-438F-BC5A-BB78A6E79959}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050F495-451D-422D-BCEC-2B5F2C7A6457}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,29 @@
   </si>
   <si>
     <t>1002|1003|1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:2,10002:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003:3</t>
+  </si>
+  <si>
+    <t>10004:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:1,10002:1,10003:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:1,10002:1,10003:1,10004:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,9 +437,10 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +456,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -449,8 +476,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -466,8 +496,11 @@
       <c r="E3">
         <v>1003</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -483,8 +516,11 @@
       <c r="E4">
         <v>1004</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -500,8 +536,11 @@
       <c r="E5">
         <v>1005</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -517,8 +556,11 @@
       <c r="E6">
         <v>1006</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -534,8 +576,11 @@
       <c r="E7">
         <v>1007</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -551,8 +596,11 @@
       <c r="E8">
         <v>1008</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -567,6 +615,9 @@
       </c>
       <c r="E9">
         <v>1001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050F495-451D-422D-BCEC-2B5F2C7A6457}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07223C9D-398F-4492-983E-FBA5DDE2C77C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,17 @@
   </si>
   <si>
     <t>10001:1,10002:1,10003:1,10004:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101|102|103</t>
+  </si>
+  <si>
+    <t>101|102|103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -437,10 +448,11 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +471,11 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -479,8 +494,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -499,8 +517,11 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -520,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -539,8 +560,11 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -559,8 +583,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -579,8 +606,11 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -600,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07223C9D-398F-4492-983E-FBA5DDE2C77C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF2A417-83F6-4910-9CDC-6908084AB64C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,133 +452,110 @@
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1003</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1004</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1004</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1005</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1006</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -589,19 +566,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1007</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -612,41 +589,64 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1008</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1008</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1001</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF2A417-83F6-4910-9CDC-6908084AB64C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5C08E-75FB-442D-A3F5-427C038C97BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>101|102|103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达场景id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,6 +464,17 @@
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5C08E-75FB-442D-A3F5-427C038C97BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199F2A1-3F3F-4DA0-837D-F38492428186}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001|1002|1003|1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -500,10 +508,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -512,10 +520,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -523,10 +528,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -534,74 +539,74 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1003</v>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1003</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1004</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1005</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1006</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -612,19 +617,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1007</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -635,41 +640,64 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1008</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1008</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>1001</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199F2A1-3F3F-4DA0-837D-F38492428186}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238AA9DA-1169-4EF9-A784-5EB45A82CD7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>1001|1002|1003|1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,9 +478,10 @@
     <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="29.109375" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -482,8 +491,11 @@
       <c r="F1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,8 +517,11 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -525,8 +540,11 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -548,8 +566,11 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -571,8 +592,11 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -591,8 +615,11 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -614,8 +641,11 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -637,8 +667,11 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -660,8 +693,11 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -680,8 +716,11 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -699,6 +738,9 @@
       </c>
       <c r="F11" t="s">
         <v>17</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238AA9DA-1169-4EF9-A784-5EB45A82CD7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E856B06-2E62-418E-93DE-98FF71383858}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>personal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defaultScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安全村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001|1002|1003|1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +129,24 @@
   </si>
   <si>
     <t>是否允许攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景类型：
+1：普通场景
+2：副本场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次元入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,9 +190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,35 +476,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -506,16 +522,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -526,22 +542,22 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -549,24 +565,24 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="b">
+        <v>21</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -575,24 +591,24 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>1003</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="b">
+        <v>20</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
@@ -601,21 +617,21 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
         <v>1004</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
@@ -624,24 +640,24 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7">
         <v>1005</v>
       </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="b">
+        <v>20</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
@@ -650,24 +666,24 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
         <v>1006</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="b">
+        <v>20</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
@@ -676,24 +692,24 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>1007</v>
       </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="b">
+        <v>20</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
@@ -702,21 +718,21 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
         <v>1008</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="b">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
@@ -725,22 +741,39 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
         <v>1001</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E856B06-2E62-418E-93DE-98FF71383858}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357319AA-8F79-4237-9330-CBF1D374149A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1002|1003|1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monsters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>新手村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000|1002|1003|1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,16 +525,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -542,16 +542,16 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -600,10 +600,10 @@
         <v>1003</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>1004</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>1005</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>1006</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>1007</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>1008</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>1001</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357319AA-8F79-4237-9330-CBF1D374149A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FDFBB-AF8B-4884-922C-D201A8D3EFAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001:2,10002:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10003:3</t>
   </si>
   <si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>1000|1002|1003|1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:2,10002:1,10003:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,13 +528,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -542,16 +542,16 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -600,10 +600,10 @@
         <v>1003</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>1004</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>1005</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>1006</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>1007</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>1008</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>1001</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33FDFBB-AF8B-4884-922C-D201A8D3EFAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8FCF0B-8E5B-4E3A-98F1-D093E2640448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001:2,10002:1,10003:1</t>
+    <t>10001:2,10002:1,10004:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8FCF0B-8E5B-4E3A-98F1-D093E2640448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4677F52-2129-4D6C-B151-26E75308E21D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>10001:2,10002:1,10004:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101|102|103|105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,6 +206,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -221,7 +293,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -479,7 +551,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,7 +561,7 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
@@ -551,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4677F52-2129-4D6C-B151-26E75308E21D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B725E8-1C21-4E32-A06C-847792CE5E55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101|102|103|105</t>
+    <t>101|102|103|105|106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +561,7 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B725E8-1C21-4E32-A06C-847792CE5E55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED2CE2-0A5D-41D3-B701-C0E8B95BD05A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101|102|103|105|106</t>
+    <t>101|102|103|105|106|107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED2CE2-0A5D-41D3-B701-C0E8B95BD05A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BD66A-512B-480C-BAFC-5FAE28FA3E86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,32 +125,36 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次元入侵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000|1002|1003|1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001:2,10002:1,10004:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101|102|103|105|106|107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>场景类型：
 1：普通场景
-2：副本场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次元入侵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000|1002|1003|1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001:2,10002:1,10004:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101|102|103|105|106|107</t>
+2：临时场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -580,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -614,7 +618,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -623,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -643,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -836,7 +840,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -845,6 +849,23 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
     </row>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BD66A-512B-480C-BAFC-5FAE28FA3E86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5304879-FAAF-443E-BE7C-2FAEC2758C8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,13 +148,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>场景类型：
 1：普通场景
-2：临时场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场</t>
+2：副本场景
+3：竞技场场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +298,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,7 +556,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,7 +571,7 @@
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -584,7 +585,7 @@
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>3001</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
+++ b/server/docs/SceneCfgExcel_com.wan37.config.entity.SceneCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5304879-FAAF-443E-BE7C-2FAEC2758C8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3A286-5C29-42AB-AE8A-2BBF35A02D1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
